--- a/spring-demo-thea/src/main/resources/bd/TP-FINAL/DatosBD.xlsx
+++ b/spring-demo-thea/src/main/resources/bd/TP-FINAL/DatosBD.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="105" windowWidth="9255" windowHeight="5655"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="11340" windowHeight="2520" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Usuarios" sheetId="2" r:id="rId1"/>
     <sheet name="Personas" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1:I7"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
   <si>
     <t>Nombre</t>
   </si>
@@ -153,6 +154,54 @@
   </si>
   <si>
     <t>mat971674</t>
+  </si>
+  <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>fferrari</t>
+  </si>
+  <si>
+    <t>jmichelson</t>
+  </si>
+  <si>
+    <t>jsalinas</t>
+  </si>
+  <si>
+    <t>mbava</t>
+  </si>
+  <si>
+    <t>mastengo</t>
+  </si>
+  <si>
+    <t>ngonzalez</t>
+  </si>
+  <si>
+    <t>stesta</t>
+  </si>
+  <si>
+    <t>ffff</t>
+  </si>
+  <si>
+    <t>mmmm</t>
+  </si>
+  <si>
+    <t>ssss</t>
+  </si>
+  <si>
+    <t>bbbb</t>
+  </si>
+  <si>
+    <t>aaaa</t>
+  </si>
+  <si>
+    <t>gggg</t>
+  </si>
+  <si>
+    <t>tttt</t>
   </si>
 </sst>
 </file>
@@ -983,7 +1032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
@@ -998,6 +1047,12 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
@@ -1020,7 +1075,13 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
     </row>
@@ -1034,7 +1095,13 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
     </row>
@@ -1048,7 +1115,13 @@
       <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
     </row>
@@ -1062,7 +1135,13 @@
       <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
     </row>
@@ -1076,7 +1155,13 @@
       <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6">
         <v>1</v>
       </c>
     </row>
@@ -1090,7 +1175,13 @@
       <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7">
         <v>1</v>
       </c>
     </row>
@@ -1104,12 +1195,19 @@
       <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="597" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1117,7 +1215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>

--- a/spring-demo-thea/src/main/resources/bd/TP-FINAL/DatosBD.xlsx
+++ b/spring-demo-thea/src/main/resources/bd/TP-FINAL/DatosBD.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="11340" windowHeight="2520" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13200" windowHeight="2820" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Usuarios" sheetId="2" r:id="rId1"/>
-    <sheet name="Personas" sheetId="1" r:id="rId2"/>
+    <sheet name="Roles" sheetId="3" r:id="rId1"/>
+    <sheet name="Funciones" sheetId="5" r:id="rId2"/>
+    <sheet name="Usuarios" sheetId="2" r:id="rId3"/>
+    <sheet name="Personas" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:I7"/>
+  <oleSize ref="A1:J8"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
   <si>
     <t>Nombre</t>
   </si>
@@ -27,181 +29,166 @@
     <t>Email</t>
   </si>
   <si>
+    <t>Roles</t>
+  </si>
+  <si>
+    <t>Francisco</t>
+  </si>
+  <si>
+    <t>Ferrari</t>
+  </si>
+  <si>
+    <t>spyrofran@gmail.com</t>
+  </si>
+  <si>
+    <t>Javier</t>
+  </si>
+  <si>
+    <t>Michelson</t>
+  </si>
+  <si>
+    <t>javier.michelson</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Salinas</t>
+  </si>
+  <si>
+    <t>salinasjuancruz@gmail.com</t>
+  </si>
+  <si>
+    <t>Matias</t>
+  </si>
+  <si>
+    <t>Bava</t>
+  </si>
+  <si>
+    <t>matiasbava3@gmail.com</t>
+  </si>
+  <si>
+    <t>Maximiliano</t>
+  </si>
+  <si>
+    <t>Astengo</t>
+  </si>
+  <si>
+    <t>maxiastengo@gmail.com</t>
+  </si>
+  <si>
+    <t>Natalia</t>
+  </si>
+  <si>
+    <t>Gonzalez</t>
+  </si>
+  <si>
+    <t>marianataliagonzalez.ar@gmail.com</t>
+  </si>
+  <si>
+    <t>Sylvia</t>
+  </si>
+  <si>
+    <t>Testa</t>
+  </si>
+  <si>
+    <t>DNI</t>
+  </si>
+  <si>
+    <t>Funcion</t>
+  </si>
+  <si>
+    <t>Funciones</t>
+  </si>
+  <si>
+    <t>Matricula</t>
+  </si>
+  <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>fferrari</t>
+  </si>
+  <si>
+    <t>jmichelson</t>
+  </si>
+  <si>
+    <t>jsalinas</t>
+  </si>
+  <si>
+    <t>mbava</t>
+  </si>
+  <si>
+    <t>mastengo</t>
+  </si>
+  <si>
+    <t>ngonzalez</t>
+  </si>
+  <si>
+    <t>ffff</t>
+  </si>
+  <si>
+    <t>mmmm</t>
+  </si>
+  <si>
+    <t>ssss</t>
+  </si>
+  <si>
+    <t>bbbb</t>
+  </si>
+  <si>
+    <t>aaaa</t>
+  </si>
+  <si>
+    <t>gggg</t>
+  </si>
+  <si>
+    <t>ADMIN</t>
+  </si>
+  <si>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>SECURITY</t>
+  </si>
+  <si>
+    <t>Profesor</t>
+  </si>
+  <si>
+    <t>Alumno</t>
+  </si>
+  <si>
+    <t>Administrativo</t>
+  </si>
+  <si>
+    <t>97166-8</t>
+  </si>
+  <si>
+    <t>97166-9</t>
+  </si>
+  <si>
+    <t>97167-0</t>
+  </si>
+  <si>
+    <t>97167-1</t>
+  </si>
+  <si>
+    <t>97167-2</t>
+  </si>
+  <si>
+    <t>97167-3</t>
+  </si>
+  <si>
+    <t>97167-4</t>
+  </si>
+  <si>
     <t>Rol</t>
   </si>
   <si>
-    <t>Roles</t>
-  </si>
-  <si>
-    <t>Francisco</t>
-  </si>
-  <si>
-    <t>Ferrari</t>
-  </si>
-  <si>
-    <t>spyrofran@gmail.com</t>
-  </si>
-  <si>
-    <t>1 - Alumno</t>
-  </si>
-  <si>
-    <t>Javier</t>
-  </si>
-  <si>
-    <t>Michelson</t>
-  </si>
-  <si>
-    <t>javier.michelson</t>
-  </si>
-  <si>
-    <t>2 - Docente</t>
-  </si>
-  <si>
-    <t>Juan</t>
-  </si>
-  <si>
-    <t>Salinas</t>
-  </si>
-  <si>
-    <t>salinasjuancruz@gmail.com</t>
-  </si>
-  <si>
-    <t>Matias</t>
-  </si>
-  <si>
-    <t>Bava</t>
-  </si>
-  <si>
-    <t>matiasbava3@gmail.com</t>
-  </si>
-  <si>
-    <t>Maximiliano</t>
-  </si>
-  <si>
-    <t>Astengo</t>
-  </si>
-  <si>
-    <t>maxiastengo@gmail.com</t>
-  </si>
-  <si>
-    <t>Natalia</t>
-  </si>
-  <si>
-    <t>Gonzalez</t>
-  </si>
-  <si>
-    <t>marianataliagonzalez.ar@gmail.com</t>
-  </si>
-  <si>
-    <t>Sylvia</t>
-  </si>
-  <si>
-    <t>Testa</t>
-  </si>
-  <si>
-    <t>stesta@ks.edu.ar</t>
-  </si>
-  <si>
-    <t>DNI</t>
-  </si>
-  <si>
-    <t>dni33333333</t>
-  </si>
-  <si>
-    <t>dni33333334</t>
-  </si>
-  <si>
-    <t>dni33333335</t>
-  </si>
-  <si>
-    <t>dni33333336</t>
-  </si>
-  <si>
-    <t>dni33333337</t>
-  </si>
-  <si>
-    <t>dni33333338</t>
-  </si>
-  <si>
-    <t>dni33333339</t>
-  </si>
-  <si>
-    <t>Funcion</t>
-  </si>
-  <si>
-    <t>Funciones</t>
-  </si>
-  <si>
-    <t>Matricula</t>
-  </si>
-  <si>
-    <t>mat971668</t>
-  </si>
-  <si>
-    <t>mat971669</t>
-  </si>
-  <si>
-    <t>mat971670</t>
-  </si>
-  <si>
-    <t>mat971671</t>
-  </si>
-  <si>
-    <t>mat971672</t>
-  </si>
-  <si>
-    <t>mat971673</t>
-  </si>
-  <si>
-    <t>mat971674</t>
-  </si>
-  <si>
-    <t>Usuario</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>fferrari</t>
-  </si>
-  <si>
-    <t>jmichelson</t>
-  </si>
-  <si>
-    <t>jsalinas</t>
-  </si>
-  <si>
-    <t>mbava</t>
-  </si>
-  <si>
-    <t>mastengo</t>
-  </si>
-  <si>
-    <t>ngonzalez</t>
-  </si>
-  <si>
-    <t>stesta</t>
-  </si>
-  <si>
-    <t>ffff</t>
-  </si>
-  <si>
-    <t>mmmm</t>
-  </si>
-  <si>
-    <t>ssss</t>
-  </si>
-  <si>
-    <t>bbbb</t>
-  </si>
-  <si>
-    <t>aaaa</t>
-  </si>
-  <si>
-    <t>gggg</t>
-  </si>
-  <si>
-    <t>tttt</t>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -692,9 +679,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1030,179 +1019,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
       <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1213,13 +1065,63 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="597" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1227,135 +1129,286 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="597" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="2">
+        <v>33333333</v>
+      </c>
+      <c r="D2" s="3">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2">
+        <v>33333334</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2">
+        <v>33333335</v>
+      </c>
+      <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4">
+      <c r="C5" s="2">
+        <v>33333336</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2">
+        <v>33333337</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2">
+        <v>33333338</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2">
+        <v>33333339</v>
+      </c>
+      <c r="D8" s="3">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/spring-demo-thea/src/main/resources/bd/TP-FINAL/DatosBD.xlsx
+++ b/spring-demo-thea/src/main/resources/bd/TP-FINAL/DatosBD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="13200" windowHeight="2820" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13200" windowHeight="2640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Roles" sheetId="3" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="Personas" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:J8"/>
+  <oleSize ref="A1:J7"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
   <si>
     <t>Nombre</t>
   </si>
@@ -189,6 +189,27 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>dni 33333333</t>
+  </si>
+  <si>
+    <t>dni 33333334</t>
+  </si>
+  <si>
+    <t>dni 33333335</t>
+  </si>
+  <si>
+    <t>dni 33333336</t>
+  </si>
+  <si>
+    <t>dni 33333337</t>
+  </si>
+  <si>
+    <t>dni 33333338</t>
+  </si>
+  <si>
+    <t>dni 33333339</t>
   </si>
 </sst>
 </file>
@@ -1067,7 +1088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -1271,9 +1292,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
@@ -1299,8 +1325,8 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2">
-        <v>33333333</v>
+      <c r="C2" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -1316,8 +1342,8 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2">
-        <v>33333334</v>
+      <c r="C3" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
@@ -1333,8 +1359,8 @@
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2">
-        <v>33333335</v>
+      <c r="C4" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
@@ -1350,8 +1376,8 @@
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2">
-        <v>33333336</v>
+      <c r="C5" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="D5" s="3">
         <v>2</v>
@@ -1367,8 +1393,8 @@
       <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2">
-        <v>33333337</v>
+      <c r="C6" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="D6" s="3">
         <v>2</v>
@@ -1384,8 +1410,8 @@
       <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="2">
-        <v>33333338</v>
+      <c r="C7" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D7" s="3">
         <v>2</v>
@@ -1401,8 +1427,8 @@
       <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="2">
-        <v>33333339</v>
+      <c r="C8" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>

--- a/spring-demo-thea/src/main/resources/bd/TP-FINAL/DatosBD.xlsx
+++ b/spring-demo-thea/src/main/resources/bd/TP-FINAL/DatosBD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="13200" windowHeight="2640" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13200" windowHeight="2550" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Roles" sheetId="3" r:id="rId1"/>
@@ -164,52 +164,52 @@
     <t>Administrativo</t>
   </si>
   <si>
-    <t>97166-8</t>
-  </si>
-  <si>
-    <t>97166-9</t>
-  </si>
-  <si>
-    <t>97167-0</t>
-  </si>
-  <si>
-    <t>97167-1</t>
-  </si>
-  <si>
-    <t>97167-2</t>
-  </si>
-  <si>
-    <t>97167-3</t>
-  </si>
-  <si>
-    <t>97167-4</t>
-  </si>
-  <si>
     <t>Rol</t>
   </si>
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>dni 33333333</t>
-  </si>
-  <si>
-    <t>dni 33333334</t>
-  </si>
-  <si>
-    <t>dni 33333335</t>
-  </si>
-  <si>
-    <t>dni 33333336</t>
-  </si>
-  <si>
-    <t>dni 33333337</t>
-  </si>
-  <si>
-    <t>dni 33333338</t>
-  </si>
-  <si>
-    <t>dni 33333339</t>
+    <t>33333333</t>
+  </si>
+  <si>
+    <t>33333334</t>
+  </si>
+  <si>
+    <t>33333335</t>
+  </si>
+  <si>
+    <t>33333336</t>
+  </si>
+  <si>
+    <t>33333337</t>
+  </si>
+  <si>
+    <t>33333338</t>
+  </si>
+  <si>
+    <t>33333339</t>
+  </si>
+  <si>
+    <t>971668</t>
+  </si>
+  <si>
+    <t>971669</t>
+  </si>
+  <si>
+    <t>971670</t>
+  </si>
+  <si>
+    <t>971671</t>
+  </si>
+  <si>
+    <t>971672</t>
+  </si>
+  <si>
+    <t>971673</t>
+  </si>
+  <si>
+    <t>971674</t>
   </si>
 </sst>
 </file>
@@ -703,8 +703,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1048,7 +1048,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1098,14 +1098,14 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1113,7 +1113,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -1121,7 +1121,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -1159,7 +1159,7 @@
         <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1178,7 +1178,7 @@
       <c r="E2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1198,7 +1198,7 @@
       <c r="E3" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1218,7 +1218,7 @@
       <c r="E4" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1238,7 +1238,7 @@
       <c r="E5" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1258,7 +1258,7 @@
       <c r="E6" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1278,7 +1278,7 @@
       <c r="E7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1292,9 +1292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -1325,14 +1323,14 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1342,14 +1340,14 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1359,14 +1357,14 @@
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1376,14 +1374,14 @@
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="D5" s="3">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1393,14 +1391,14 @@
       <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="D6" s="3">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1410,14 +1408,14 @@
       <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="D7" s="3">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1427,14 +1425,14 @@
       <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/spring-demo-thea/src/main/resources/bd/TP-FINAL/DatosBD.xlsx
+++ b/spring-demo-thea/src/main/resources/bd/TP-FINAL/DatosBD.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Roles" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3923" uniqueCount="3215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3923" uniqueCount="3222">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -9669,6 +9669,117 @@
   </si>
   <si>
     <t xml:space="preserve">972627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha Ingreso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20/02/2020 18:20:45</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">20/02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/2020 19:15:55</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">20/02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/2020 20:00:01</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">20/02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/2020 20:00:05</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">20/02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/2020 21:33:01</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">20/02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/2020 22:11:01</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -9680,7 +9791,7 @@
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -9709,6 +9820,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -9759,7 +9876,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -9781,6 +9898,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -9863,11 +9984,11 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -9923,7 +10044,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.53"/>
@@ -9983,7 +10104,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.98"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -26525,13 +26649,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1048576"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
@@ -26544,99 +26672,93 @@
         <v>45</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>47</v>
+        <v>3215</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>55</v>
+        <v>3216</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>59</v>
+        <v>66</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>3217</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>63</v>
+        <v>54</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>3218</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>67</v>
+        <v>74</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>3219</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>71</v>
+        <v>58</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>3220</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>62</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>3221</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/spring-demo-thea/src/main/resources/bd/TP-FINAL/DatosBD.xlsx
+++ b/spring-demo-thea/src/main/resources/bd/TP-FINAL/DatosBD.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Roles" sheetId="1" state="visible" r:id="rId2"/>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">TESTA</t>
   </si>
   <si>
-    <t xml:space="preserve">13000611</t>
+    <t xml:space="preserve">17321654</t>
   </si>
   <si>
     <t xml:space="preserve">971674</t>
@@ -9677,109 +9677,19 @@
     <t xml:space="preserve">20/02/2020 18:20:45</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">20/02</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/2020 19:15:55</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">20/02</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/2020 20:00:01</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">20/02</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/2020 20:00:05</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">20/02</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/2020 21:33:01</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">20/02</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/2020 22:11:01</t>
-    </r>
+    <t xml:space="preserve">20/02/2020 19:15:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20/02/2020 20:00:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20/02/2020 20:00:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20/02/2020 21:33:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20/02/2020 22:11:01</t>
   </si>
 </sst>
 </file>
@@ -9791,7 +9701,7 @@
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -9820,12 +9730,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -9876,7 +9780,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -9898,10 +9802,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -9984,11 +9884,11 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -10044,7 +9944,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.53"/>
@@ -10104,7 +10004,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.98"/>
   </cols>
@@ -10267,8 +10167,8 @@
   </sheetPr>
   <dimension ref="A1:E962"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.61328125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26655,7 +26555,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
@@ -26699,7 +26599,7 @@
       <c r="C3" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>3217</v>
       </c>
     </row>
@@ -26713,7 +26613,7 @@
       <c r="C4" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>3218</v>
       </c>
     </row>
@@ -26727,7 +26627,7 @@
       <c r="C5" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>3219</v>
       </c>
     </row>
@@ -26741,7 +26641,7 @@
       <c r="C6" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>3220</v>
       </c>
     </row>
@@ -26755,7 +26655,7 @@
       <c r="C7" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>3221</v>
       </c>
     </row>
